--- a/REGULAR/AMON, RHEALYN OCAMPO.xlsx
+++ b/REGULAR/AMON, RHEALYN OCAMPO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C86C543-16B4-4C2A-8330-92DCCC7FC91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -307,12 +306,18 @@
   </si>
   <si>
     <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>5/17-19/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1004,26 +1009,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K132" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K132"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1330,33 +1335,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3612" topLeftCell="A73" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <pane ySplit="3720" topLeftCell="A73" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1377,7 +1382,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1399,7 +1404,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1419,7 +1424,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1427,7 +1432,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1440,7 +1445,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -1457,7 +1462,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1501,7 +1506,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>20.207999999999998</v>
+        <v>18.457999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1511,12 +1516,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>22.207999999999998</v>
+        <v>23.457999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1538,7 +1543,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43832</v>
       </c>
@@ -1558,7 +1563,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43862</v>
       </c>
@@ -1582,7 +1587,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>46</v>
       </c>
@@ -1602,7 +1607,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43922</v>
       </c>
@@ -1622,7 +1627,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43952</v>
       </c>
@@ -1642,7 +1647,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43983</v>
       </c>
@@ -1662,7 +1667,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>44013</v>
       </c>
@@ -1682,7 +1687,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44044</v>
       </c>
@@ -1702,7 +1707,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>44075</v>
       </c>
@@ -1724,7 +1729,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -1744,7 +1749,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13">
@@ -1762,7 +1767,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44105</v>
       </c>
@@ -1782,7 +1787,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>44136</v>
       </c>
@@ -1804,7 +1809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -1822,7 +1827,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44166</v>
       </c>
@@ -1846,7 +1851,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -1868,7 +1873,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
@@ -1886,7 +1891,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>55</v>
       </c>
@@ -1904,7 +1909,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44197</v>
       </c>
@@ -1926,7 +1931,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -1944,7 +1949,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44228</v>
       </c>
@@ -1968,7 +1973,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>60</v>
@@ -1988,7 +1993,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>59</v>
@@ -2010,7 +2015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>59</v>
@@ -2032,7 +2037,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13">
@@ -2050,7 +2055,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>44287</v>
       </c>
@@ -2070,7 +2075,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44317</v>
       </c>
@@ -2090,7 +2095,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44348</v>
       </c>
@@ -2114,7 +2119,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13">
@@ -2132,7 +2137,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44378</v>
       </c>
@@ -2156,7 +2161,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>52</v>
@@ -2178,7 +2183,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
@@ -2196,7 +2201,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44409</v>
       </c>
@@ -2216,7 +2221,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44440</v>
       </c>
@@ -2236,7 +2241,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44470</v>
       </c>
@@ -2260,7 +2265,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -2278,7 +2283,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44501</v>
       </c>
@@ -2302,7 +2307,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -2320,7 +2325,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44531</v>
       </c>
@@ -2346,7 +2351,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>71</v>
@@ -2366,7 +2371,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>73</v>
       </c>
@@ -2384,7 +2389,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44562</v>
       </c>
@@ -2404,7 +2409,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44593</v>
       </c>
@@ -2424,7 +2429,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44621</v>
       </c>
@@ -2444,7 +2449,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44652</v>
       </c>
@@ -2468,7 +2473,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -2486,7 +2491,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44682</v>
       </c>
@@ -2510,7 +2515,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -2528,7 +2533,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44713</v>
       </c>
@@ -2554,7 +2559,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>47</v>
@@ -2574,7 +2579,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>76</v>
@@ -2594,7 +2599,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44743</v>
       </c>
@@ -2618,7 +2623,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -2636,7 +2641,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44774</v>
       </c>
@@ -2656,7 +2661,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44805</v>
       </c>
@@ -2682,7 +2687,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>87</v>
@@ -2704,7 +2709,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>88</v>
@@ -2726,7 +2731,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>87</v>
@@ -2748,7 +2753,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44835</v>
       </c>
@@ -2774,7 +2779,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44866</v>
       </c>
@@ -2800,7 +2805,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44896</v>
       </c>
@@ -2826,7 +2831,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>90</v>
@@ -2848,7 +2853,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>87</v>
@@ -2870,7 +2875,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
         <v>86</v>
       </c>
@@ -2888,7 +2893,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44927</v>
       </c>
@@ -2914,7 +2919,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44958</v>
       </c>
@@ -2934,31 +2939,37 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44986</v>
       </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45017</v>
       </c>
-      <c r="B78" s="20"/>
+      <c r="B78" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C78" s="13"/>
-      <c r="D78" s="39"/>
+      <c r="D78" s="39">
+        <v>3</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13" t="str">
@@ -2968,9 +2979,11 @@
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K78" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45047</v>
       </c>
@@ -2988,7 +3001,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45078</v>
       </c>
@@ -3006,7 +3019,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45108</v>
       </c>
@@ -3024,7 +3037,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45139</v>
       </c>
@@ -3042,7 +3055,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45170</v>
       </c>
@@ -3060,7 +3073,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45200</v>
       </c>
@@ -3078,7 +3091,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45231</v>
       </c>
@@ -3096,7 +3109,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45261</v>
       </c>
@@ -3114,7 +3127,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45292</v>
       </c>
@@ -3132,7 +3145,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45323</v>
       </c>
@@ -3150,7 +3163,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45352</v>
       </c>
@@ -3168,7 +3181,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45383</v>
       </c>
@@ -3186,7 +3199,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45413</v>
       </c>
@@ -3204,7 +3217,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45444</v>
       </c>
@@ -3222,7 +3235,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45474</v>
       </c>
@@ -3240,7 +3253,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45505</v>
       </c>
@@ -3258,7 +3271,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45536</v>
       </c>
@@ -3276,7 +3289,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45566</v>
       </c>
@@ -3294,7 +3307,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45597</v>
       </c>
@@ -3312,7 +3325,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45627</v>
       </c>
@@ -3330,7 +3343,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45658</v>
       </c>
@@ -3348,7 +3361,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45689</v>
       </c>
@@ -3366,7 +3379,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45717</v>
       </c>
@@ -3384,7 +3397,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45748</v>
       </c>
@@ -3402,7 +3415,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45778</v>
       </c>
@@ -3420,7 +3433,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45809</v>
       </c>
@@ -3438,7 +3451,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45839</v>
       </c>
@@ -3456,7 +3469,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45870</v>
       </c>
@@ -3474,7 +3487,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45901</v>
       </c>
@@ -3492,7 +3505,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45931</v>
       </c>
@@ -3510,7 +3523,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45962</v>
       </c>
@@ -3528,7 +3541,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45992</v>
       </c>
@@ -3546,7 +3559,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>46023</v>
       </c>
@@ -3564,7 +3577,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>46054</v>
       </c>
@@ -3582,7 +3595,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>46082</v>
       </c>
@@ -3600,7 +3613,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>46113</v>
       </c>
@@ -3618,7 +3631,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>46143</v>
       </c>
@@ -3636,7 +3649,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>46174</v>
       </c>
@@ -3654,7 +3667,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>46204</v>
       </c>
@@ -3672,7 +3685,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>46235</v>
       </c>
@@ -3690,7 +3703,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>46266</v>
       </c>
@@ -3708,7 +3721,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>46296</v>
       </c>
@@ -3726,7 +3739,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>46327</v>
       </c>
@@ -3744,7 +3757,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>46357</v>
       </c>
@@ -3762,7 +3775,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>46388</v>
       </c>
@@ -3780,7 +3793,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>46419</v>
       </c>
@@ -3798,7 +3811,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>46447</v>
       </c>
@@ -3816,7 +3829,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>46478</v>
       </c>
@@ -3834,7 +3847,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3850,7 +3863,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3866,7 +3879,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3882,7 +3895,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3898,7 +3911,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3914,7 +3927,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41"/>
       <c r="B132" s="15"/>
       <c r="C132" s="42"/>
@@ -3945,10 +3958,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3971,28 +3984,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -4005,7 +4018,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4034,7 +4047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -4056,17 +4069,17 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4087,7 +4100,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4114,7 +4127,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4140,7 +4153,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4166,7 +4179,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4192,7 +4205,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4218,7 +4231,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4244,7 +4257,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4270,7 +4283,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4296,7 +4309,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4316,7 +4329,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4336,7 +4349,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4356,7 +4369,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4377,7 +4390,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4398,7 +4411,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4419,7 +4432,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4440,7 +4453,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4461,7 +4474,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4482,7 +4495,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4503,7 +4516,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4524,7 +4537,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4545,7 +4558,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4566,7 +4579,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4587,7 +4600,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4608,7 +4621,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4629,7 +4642,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4650,7 +4663,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4671,7 +4684,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4692,7 +4705,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4713,7 +4726,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4734,7 +4747,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4755,7 +4768,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4776,7 +4789,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4785,7 +4798,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4794,7 +4807,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4803,7 +4816,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4812,7 +4825,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4821,7 +4834,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4830,7 +4843,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4839,7 +4852,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4848,7 +4861,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4857,7 +4870,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4866,7 +4879,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4875,7 +4888,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4884,7 +4897,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4893,7 +4906,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4902,7 +4915,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4911,7 +4924,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4920,7 +4933,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4929,7 +4942,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4938,7 +4951,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4947,7 +4960,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4956,7 +4969,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4965,7 +4978,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4974,7 +4987,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4983,7 +4996,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4992,7 +5005,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5001,7 +5014,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5010,7 +5023,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5019,7 +5032,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5028,7 +5041,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5037,7 +5050,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/AMON, RHEALYN OCAMPO.xlsx
+++ b/REGULAR/AMON, RHEALYN OCAMPO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>5/17-19/2023</t>
+  </si>
+  <si>
+    <t>6/1,2/2023</t>
   </si>
 </sst>
 </file>
@@ -1009,8 +1012,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K132"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K133"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1339,11 +1342,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <pane ySplit="3720" topLeftCell="A73" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1509,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>18.457999999999998</v>
+        <v>17.707999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1516,7 +1519,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>23.457999999999998</v>
+        <v>23.707999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2966,15 +2969,17 @@
       <c r="B78" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39">
         <v>3</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -2987,9 +2992,13 @@
       <c r="A79" s="40">
         <v>45047</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="C79" s="13"/>
-      <c r="D79" s="39"/>
+      <c r="D79" s="39">
+        <v>2</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13" t="str">
@@ -2999,13 +3008,15 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="20" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B80" s="20"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
@@ -3014,14 +3025,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="39"/>
+      <c r="H80" s="39">
+        <v>1</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="51">
+        <v>45041</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -3039,7 +3054,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -3057,7 +3072,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -3075,7 +3090,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -3093,7 +3108,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3111,7 +3126,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3129,7 +3144,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3147,7 +3162,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3165,7 +3180,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3183,7 +3198,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3201,7 +3216,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3219,7 +3234,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3237,7 +3252,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3255,7 +3270,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3273,7 +3288,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3291,7 +3306,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3309,7 +3324,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3327,7 +3342,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3345,7 +3360,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3363,7 +3378,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3381,7 +3396,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3399,7 +3414,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3417,7 +3432,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3435,7 +3450,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3453,7 +3468,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3471,7 +3486,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3489,7 +3504,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3507,7 +3522,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3525,7 +3540,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3543,7 +3558,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3561,7 +3576,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3579,7 +3594,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3597,7 +3612,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3615,7 +3630,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3633,7 +3648,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3651,7 +3666,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3669,7 +3684,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3687,7 +3702,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3705,7 +3720,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3723,7 +3738,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3741,7 +3756,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3759,7 +3774,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3777,7 +3792,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3795,7 +3810,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3813,7 +3828,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3831,7 +3846,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3848,7 +3863,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>46478</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -3928,20 +3945,36 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/AMON, RHEALYN OCAMPO.xlsx
+++ b/REGULAR/AMON, RHEALYN OCAMPO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -311,10 +311,10 @@
     <t>VL(3-0-0)</t>
   </si>
   <si>
-    <t>5/17-19/2023</t>
-  </si>
-  <si>
     <t>6/1,2/2023</t>
+  </si>
+  <si>
+    <t>5/15,16,17-19/2023</t>
   </si>
 </sst>
 </file>
@@ -1344,8 +1344,9 @@
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3720" topLeftCell="A73" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <pane ySplit="4005" topLeftCell="A72" activePane="bottomLeft"/>
+      <selection activeCell="G20" sqref="G20"/>
       <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
@@ -1509,7 +1510,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>17.707999999999998</v>
+        <v>16.957999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1519,7 +1520,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>23.707999999999998</v>
+        <v>23.957999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2973,7 +2974,7 @@
         <v>1.25</v>
       </c>
       <c r="D78" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
@@ -2985,7 +2986,7 @@
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -2995,21 +2996,23 @@
       <c r="B79" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39">
         <v>2</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3038,7 +3041,9 @@
       <c r="A81" s="40">
         <v>45078</v>
       </c>
-      <c r="B81" s="20"/>
+      <c r="B81" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
@@ -3047,10 +3052,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H81" s="39"/>
+      <c r="H81" s="39">
+        <v>1</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="51">
+        <v>45082</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">

--- a/REGULAR/AMON, RHEALYN OCAMPO.xlsx
+++ b/REGULAR/AMON, RHEALYN OCAMPO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>5/15,16,17-19/2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1015,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K133"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K134"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1342,12 +1345,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane ySplit="4005" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3062,10 +3065,10 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B82" s="20"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
@@ -3077,11 +3080,13 @@
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="51">
+        <v>45107</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -3099,7 +3104,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -3117,7 +3122,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3135,7 +3140,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3153,7 +3158,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3171,7 +3176,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3189,7 +3194,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3207,7 +3212,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3225,7 +3230,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3243,7 +3248,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3261,7 +3266,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3279,7 +3284,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3297,7 +3302,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3315,7 +3320,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3333,7 +3338,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3351,7 +3356,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3369,7 +3374,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3387,7 +3392,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3405,7 +3410,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3423,7 +3428,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3441,7 +3446,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3459,7 +3464,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3477,7 +3482,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3495,7 +3500,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3513,7 +3518,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3531,7 +3536,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3549,7 +3554,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3567,7 +3572,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3585,7 +3590,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3603,7 +3608,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3621,7 +3626,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3639,7 +3644,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3657,7 +3662,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3675,7 +3680,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3693,7 +3698,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3711,7 +3716,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3729,7 +3734,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3747,7 +3752,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3765,7 +3770,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3783,7 +3788,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3801,7 +3806,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3819,7 +3824,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3837,7 +3842,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3855,7 +3860,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3873,7 +3878,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3890,7 +3895,9 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>46478</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -3970,20 +3977,36 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="41"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="43"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="43"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="41"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/AMON, RHEALYN OCAMPO.xlsx
+++ b/REGULAR/AMON, RHEALYN OCAMPO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1350,7 +1350,7 @@
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane ySplit="4005" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
+      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,7 +1523,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>23.957999999999998</v>
+        <v>22.957999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3088,7 +3088,9 @@
       <c r="A83" s="40">
         <v>45108</v>
       </c>
-      <c r="B83" s="20"/>
+      <c r="B83" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
@@ -3097,10 +3099,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H83" s="39"/>
+      <c r="H83" s="39">
+        <v>1</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="51">
+        <v>45117</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
